--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E0D40-D28B-443D-A3CE-9B21A673B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172CBD5-4D52-49B8-889B-27669E2CCC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,23 +1313,23 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1942,7 +1942,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1991,106 +1991,106 @@
       <c r="B3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>44965</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>44963</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>44970</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>44977</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>44984</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>44991</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>44998</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45005</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45012</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -2726,7 +2726,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E9" s="72">
         <v>44965</v>
@@ -4750,17 +4750,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="14">
@@ -4939,6 +4939,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5226,36 +5255,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5274,24 +5294,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1E0D40-D28B-443D-A3CE-9B21A673B1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009AAA08-C390-4498-B86A-3ED87580DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>Alexeu Dulgher</t>
+  </si>
+  <si>
+    <t>Diagramme des Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation à l`oral </t>
+  </si>
+  <si>
+    <t>Tdu-Adu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échéancier </t>
+  </si>
+  <si>
+    <t>Création d'un serveure local</t>
+  </si>
+  <si>
+    <t>Page Web Prototype</t>
   </si>
 </sst>
 </file>
@@ -1313,23 +1331,23 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1938,18 +1956,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -1991,106 +2009,106 @@
       <c r="B3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="90"/>
-      <c r="E3" s="94">
+      <c r="D3" s="94"/>
+      <c r="E3" s="92">
         <v>44965</v>
       </c>
-      <c r="F3" s="94"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="94"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="89">
         <f>I5</f>
         <v>44963</v>
       </c>
-      <c r="J4" s="92"/>
-      <c r="K4" s="92"/>
-      <c r="L4" s="92"/>
-      <c r="M4" s="92"/>
-      <c r="N4" s="92"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="91">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f>P5</f>
         <v>44970</v>
       </c>
-      <c r="Q4" s="92"/>
-      <c r="R4" s="92"/>
-      <c r="S4" s="92"/>
-      <c r="T4" s="92"/>
-      <c r="U4" s="92"/>
-      <c r="V4" s="93"/>
-      <c r="W4" s="91">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f>W5</f>
         <v>44977</v>
       </c>
-      <c r="X4" s="92"/>
-      <c r="Y4" s="92"/>
-      <c r="Z4" s="92"/>
-      <c r="AA4" s="92"/>
-      <c r="AB4" s="92"/>
-      <c r="AC4" s="93"/>
-      <c r="AD4" s="91">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f>AD5</f>
         <v>44984</v>
       </c>
-      <c r="AE4" s="92"/>
-      <c r="AF4" s="92"/>
-      <c r="AG4" s="92"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="92"/>
-      <c r="AJ4" s="93"/>
-      <c r="AK4" s="91">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f>AK5</f>
         <v>44991</v>
       </c>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="92"/>
-      <c r="AN4" s="92"/>
-      <c r="AO4" s="92"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="91">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f>AR5</f>
         <v>44998</v>
       </c>
-      <c r="AS4" s="92"/>
-      <c r="AT4" s="92"/>
-      <c r="AU4" s="92"/>
-      <c r="AV4" s="92"/>
-      <c r="AW4" s="92"/>
-      <c r="AX4" s="93"/>
-      <c r="AY4" s="91">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f>AY5</f>
         <v>45005</v>
       </c>
-      <c r="AZ4" s="92"/>
-      <c r="BA4" s="92"/>
-      <c r="BB4" s="92"/>
-      <c r="BC4" s="92"/>
-      <c r="BD4" s="92"/>
-      <c r="BE4" s="93"/>
-      <c r="BF4" s="91">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f>BF5</f>
         <v>45012</v>
       </c>
-      <c r="BG4" s="92"/>
-      <c r="BH4" s="92"/>
-      <c r="BI4" s="92"/>
-      <c r="BJ4" s="92"/>
-      <c r="BK4" s="92"/>
-      <c r="BL4" s="93"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -2655,7 +2673,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2726,19 +2744,19 @@
         <v>48</v>
       </c>
       <c r="D9" s="17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="72">
         <v>44965</v>
       </c>
       <c r="F9" s="72">
-        <f>E9+6</f>
-        <v>44971</v>
+        <f>E9+13</f>
+        <v>44978</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
@@ -2808,7 +2826,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="E10" s="72">
         <v>44965</v>
@@ -2882,22 +2900,25 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="53"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F11" s="72">
+        <f>E11+13</f>
+        <v>44978</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14" t="e">
+      <c r="H11" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -2959,22 +2980,25 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="53"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F12" s="72">
+        <f>E12+13</f>
+        <v>44978</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14" t="e">
+      <c r="H12" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3036,21 +3060,23 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F13" s="72">
+        <f>E13+13</f>
+        <v>44978</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -3067,7 +3093,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
@@ -3109,20 +3135,22 @@
       <c r="BL13" s="31"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -3182,24 +3210,20 @@
       <c r="BL14" s="31"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14" t="e">
+      <c r="H15" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3259,24 +3283,27 @@
       <c r="BL15" s="31"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>29</v>
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="75">
+        <v>44965</v>
+      </c>
+      <c r="F16" s="75">
+        <f>E16+17</f>
+        <v>44982</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14" t="e">
+      <c r="H16" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>18</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3290,8 +3317,8 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -3338,20 +3365,25 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="75">
+        <v>44965</v>
+      </c>
+      <c r="F17" s="75">
+        <f>E17+20</f>
+        <v>44985</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="e">
+      <c r="H17" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3365,8 +3397,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3413,7 +3445,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="20"/>
@@ -3444,7 +3476,7 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3488,7 +3520,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="20"/>
@@ -3519,7 +3551,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="Y19" s="32"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3561,20 +3593,22 @@
       <c r="BL19" s="31"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3634,22 +3668,20 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="e">
+      <c r="H21" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3711,7 +3743,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="23"/>
@@ -3786,7 +3818,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
@@ -3861,7 +3893,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
@@ -3936,18 +3968,21 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="78">
-        <v>44965</v>
-      </c>
-      <c r="F25" s="78">
-        <v>44966</v>
+      <c r="E25" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -4008,21 +4043,18 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>29</v>
+      <c r="E26" s="78">
+        <v>44965</v>
+      </c>
+      <c r="F26" s="78">
+        <v>44966</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -4081,20 +4113,22 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>29</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4154,22 +4188,20 @@
       <c r="BL27" s="31"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>29</v>
-      </c>
+      <c r="A28" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="e">
+      <c r="H28" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4231,7 +4263,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="26"/>
@@ -4306,7 +4338,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
@@ -4381,7 +4413,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
@@ -4456,7 +4488,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="26"/>
@@ -4530,13 +4562,22 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="C33" s="59"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
+      <c r="E33" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>29</v>
+      </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -4595,19 +4636,14 @@
       <c r="BL33" s="31"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -4666,103 +4702,174 @@
       <c r="BL34" s="31"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30" t="str">
+      <c r="A35" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="33"/>
-      <c r="BB35" s="33"/>
-      <c r="BC35" s="33"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="33"/>
-      <c r="BH35" s="33"/>
-      <c r="BI35" s="33"/>
-      <c r="BJ35" s="33"/>
-      <c r="BK35" s="33"/>
-      <c r="BL35" s="33"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="31"/>
+      <c r="BL35" s="31"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="33"/>
+      <c r="BG36" s="33"/>
+      <c r="BH36" s="33"/>
+      <c r="BI36" s="33"/>
+      <c r="BJ36" s="33"/>
+      <c r="BK36" s="33"/>
+      <c r="BL36" s="33"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="F37" s="47"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4776,12 +4883,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
+  <conditionalFormatting sqref="I5:BL36">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
+  <conditionalFormatting sqref="I7:BL36">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
@@ -4804,11 +4911,14 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="F10" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4825,7 +4935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4939,6 +5049,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5226,36 +5365,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5274,24 +5404,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009AAA08-C390-4498-B86A-3ED87580DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C800F5-B9D8-43CB-987B-8C1BAA3FB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8172CBD5-4D52-49B8-889B-27669E2CCC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C800F5-B9D8-43CB-987B-8C1BAA3FB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -247,6 +247,24 @@
   </si>
   <si>
     <t>Alexeu Dulgher</t>
+  </si>
+  <si>
+    <t>Diagramme des Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation à l`oral </t>
+  </si>
+  <si>
+    <t>Tdu-Adu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Échéancier </t>
+  </si>
+  <si>
+    <t>Création d'un serveure local</t>
+  </si>
+  <si>
+    <t>Page Web Prototype</t>
   </si>
 </sst>
 </file>
@@ -1938,18 +1956,18 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL38"/>
+  <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
@@ -2655,7 +2673,7 @@
       <c r="F8" s="71"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
+        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(début_tâche),ISBLANK(fin_tâche)),"",fin_tâche-début_tâche+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2726,19 +2744,19 @@
         <v>48</v>
       </c>
       <c r="D9" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="72">
         <v>44965</v>
       </c>
       <c r="F9" s="72">
-        <f>E9+6</f>
-        <v>44971</v>
+        <f>E9+13</f>
+        <v>44978</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
@@ -2808,7 +2826,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="17">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="E10" s="72">
         <v>44965</v>
@@ -2882,22 +2900,25 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="53"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E11" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="72" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F11" s="72">
+        <f>E11+13</f>
+        <v>44978</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="14" t="e">
+      <c r="H11" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
@@ -2959,22 +2980,25 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="53"/>
+        <v>57</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>58</v>
+      </c>
       <c r="D12" s="17">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="72" t="s">
-        <v>29</v>
+        <v>0</v>
+      </c>
+      <c r="E12" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F12" s="72">
+        <f>E12+13</f>
+        <v>44978</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="14" t="e">
+      <c r="H12" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>14</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3036,21 +3060,23 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="72" t="s">
-        <v>29</v>
+        <v>59</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="72">
+        <v>44965</v>
+      </c>
+      <c r="F13" s="72">
+        <f>E13+13</f>
+        <v>44978</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H13" s="14"/>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
@@ -3067,7 +3093,7 @@
       <c r="V13" s="31"/>
       <c r="W13" s="31"/>
       <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
+      <c r="Y13" s="32"/>
       <c r="Z13" s="31"/>
       <c r="AA13" s="31"/>
       <c r="AB13" s="31"/>
@@ -3109,20 +3135,22 @@
       <c r="BL13" s="31"/>
     </row>
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="72" t="s">
+        <v>29</v>
+      </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="14" t="str">
+      <c r="H14" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
@@ -3182,24 +3210,20 @@
       <c r="BL14" s="31"/>
     </row>
     <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="14"/>
-      <c r="H15" s="14" t="e">
+      <c r="H15" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
@@ -3259,24 +3283,27 @@
       <c r="BL15" s="31"/>
     </row>
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D16" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="E16" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>29</v>
+        <v>0.05</v>
+      </c>
+      <c r="E16" s="75">
+        <v>44965</v>
+      </c>
+      <c r="F16" s="75">
+        <f>E16+17</f>
+        <v>44982</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="14" t="e">
+      <c r="H16" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>18</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3290,8 +3317,8 @@
       <c r="R16" s="31"/>
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
       <c r="W16" s="31"/>
       <c r="X16" s="31"/>
       <c r="Y16" s="31"/>
@@ -3338,20 +3365,25 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>29</v>
+        <v>61</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.05</v>
+      </c>
+      <c r="E17" s="75">
+        <v>44965</v>
+      </c>
+      <c r="F17" s="75">
+        <f>E17+20</f>
+        <v>44985</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="14" t="e">
+      <c r="H17" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>21</v>
       </c>
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
@@ -3365,8 +3397,8 @@
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
       <c r="W17" s="31"/>
       <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
@@ -3413,7 +3445,7 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="55"/>
       <c r="D18" s="20"/>
@@ -3444,7 +3476,7 @@
       <c r="V18" s="31"/>
       <c r="W18" s="31"/>
       <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="Y18" s="31"/>
       <c r="Z18" s="31"/>
       <c r="AA18" s="31"/>
       <c r="AB18" s="31"/>
@@ -3488,7 +3520,7 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="55"/>
       <c r="D19" s="20"/>
@@ -3519,7 +3551,7 @@
       <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
+      <c r="Y19" s="32"/>
       <c r="Z19" s="31"/>
       <c r="AA19" s="31"/>
       <c r="AB19" s="31"/>
@@ -3561,20 +3593,22 @@
       <c r="BL19" s="31"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>29</v>
+      </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="str">
+      <c r="H20" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3634,22 +3668,20 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="57"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>29</v>
-      </c>
+      <c r="A21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
       <c r="G21" s="14"/>
-      <c r="H21" s="14" t="e">
+      <c r="H21" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
@@ -3711,7 +3743,7 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="23"/>
@@ -3786,7 +3818,7 @@
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
@@ -3861,7 +3893,7 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
@@ -3936,18 +3968,21 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="78">
-        <v>44965</v>
-      </c>
-      <c r="F25" s="78">
-        <v>44966</v>
+      <c r="E25" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -4008,21 +4043,18 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="63" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="23"/>
-      <c r="E26" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="78" t="s">
-        <v>29</v>
+      <c r="E26" s="78">
+        <v>44965</v>
+      </c>
+      <c r="F26" s="78">
+        <v>44966</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
       <c r="K26" s="31"/>
@@ -4081,20 +4113,22 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="80"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="78" t="s">
+        <v>29</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14" t="e">
         <f t="shared" si="5"/>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4154,22 +4188,20 @@
       <c r="BL27" s="31"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="81" t="s">
-        <v>29</v>
-      </c>
+      <c r="A28" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="80"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="e">
+      <c r="H28" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4231,7 +4263,7 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="59"/>
       <c r="D29" s="26"/>
@@ -4306,7 +4338,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
@@ -4381,7 +4413,7 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
@@ -4456,7 +4488,7 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="26"/>
@@ -4530,13 +4562,22 @@
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="64"/>
+      <c r="B33" s="64" t="s">
+        <v>20</v>
+      </c>
       <c r="C33" s="59"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
+      <c r="E33" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="81" t="s">
+        <v>29</v>
+      </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="14" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -4595,19 +4636,14 @@
       <c r="BL33" s="31"/>
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H34" s="14"/>
       <c r="I34" s="31"/>
       <c r="J34" s="31"/>
       <c r="K34" s="31"/>
@@ -4666,87 +4702,158 @@
       <c r="BL34" s="31"/>
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30" t="str">
+      <c r="A35" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="33"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="33"/>
-      <c r="AD35" s="33"/>
-      <c r="AE35" s="33"/>
-      <c r="AF35" s="33"/>
-      <c r="AG35" s="33"/>
-      <c r="AH35" s="33"/>
-      <c r="AI35" s="33"/>
-      <c r="AJ35" s="33"/>
-      <c r="AK35" s="33"/>
-      <c r="AL35" s="33"/>
-      <c r="AM35" s="33"/>
-      <c r="AN35" s="33"/>
-      <c r="AO35" s="33"/>
-      <c r="AP35" s="33"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="33"/>
-      <c r="BB35" s="33"/>
-      <c r="BC35" s="33"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="33"/>
-      <c r="BH35" s="33"/>
-      <c r="BI35" s="33"/>
-      <c r="BJ35" s="33"/>
-      <c r="BK35" s="33"/>
-      <c r="BL35" s="33"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="Q35" s="31"/>
+      <c r="R35" s="31"/>
+      <c r="S35" s="31"/>
+      <c r="T35" s="31"/>
+      <c r="U35" s="31"/>
+      <c r="V35" s="31"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="31"/>
+      <c r="Y35" s="31"/>
+      <c r="Z35" s="31"/>
+      <c r="AA35" s="31"/>
+      <c r="AB35" s="31"/>
+      <c r="AC35" s="31"/>
+      <c r="AD35" s="31"/>
+      <c r="AE35" s="31"/>
+      <c r="AF35" s="31"/>
+      <c r="AG35" s="31"/>
+      <c r="AH35" s="31"/>
+      <c r="AI35" s="31"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="31"/>
+      <c r="AL35" s="31"/>
+      <c r="AM35" s="31"/>
+      <c r="AN35" s="31"/>
+      <c r="AO35" s="31"/>
+      <c r="AP35" s="31"/>
+      <c r="AQ35" s="31"/>
+      <c r="AR35" s="31"/>
+      <c r="AS35" s="31"/>
+      <c r="AT35" s="31"/>
+      <c r="AU35" s="31"/>
+      <c r="AV35" s="31"/>
+      <c r="AW35" s="31"/>
+      <c r="AX35" s="31"/>
+      <c r="AY35" s="31"/>
+      <c r="AZ35" s="31"/>
+      <c r="BA35" s="31"/>
+      <c r="BB35" s="31"/>
+      <c r="BC35" s="31"/>
+      <c r="BD35" s="31"/>
+      <c r="BE35" s="31"/>
+      <c r="BF35" s="31"/>
+      <c r="BG35" s="31"/>
+      <c r="BH35" s="31"/>
+      <c r="BI35" s="31"/>
+      <c r="BJ35" s="31"/>
+      <c r="BK35" s="31"/>
+      <c r="BL35" s="31"/>
     </row>
-    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="6"/>
+    <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="33"/>
+      <c r="AD36" s="33"/>
+      <c r="AE36" s="33"/>
+      <c r="AF36" s="33"/>
+      <c r="AG36" s="33"/>
+      <c r="AH36" s="33"/>
+      <c r="AI36" s="33"/>
+      <c r="AJ36" s="33"/>
+      <c r="AK36" s="33"/>
+      <c r="AL36" s="33"/>
+      <c r="AM36" s="33"/>
+      <c r="AN36" s="33"/>
+      <c r="AO36" s="33"/>
+      <c r="AP36" s="33"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="33"/>
+      <c r="BG36" s="33"/>
+      <c r="BH36" s="33"/>
+      <c r="BI36" s="33"/>
+      <c r="BJ36" s="33"/>
+      <c r="BK36" s="33"/>
+      <c r="BL36" s="33"/>
     </row>
     <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="11"/>
-      <c r="F37" s="47"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="F38" s="47"/>
+    </row>
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4762,7 +4869,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D35">
+  <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4776,12 +4883,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL35">
+  <conditionalFormatting sqref="I5:BL36">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL35">
+  <conditionalFormatting sqref="I7:BL36">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(début_tâche&lt;=I$5,ROUNDDOWN((fin_tâche-début_tâche+1)*avancement_tâche,0)+début_tâche-1&gt;=I$5)</formula>
     </cfRule>
@@ -4804,11 +4911,14 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="34" max="16383" man="1"/>
+    <brk id="35" max="16383" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="2" max="1048575" man="1"/>
   </colBreaks>
+  <ignoredErrors>
+    <ignoredError sqref="F10" formula="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4825,7 +4935,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D35</xm:sqref>
+          <xm:sqref>D7:D36</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C800F5-B9D8-43CB-987B-8C1BAA3FB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913C88E-201D-4ABD-9247-CD0D140F48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -258,13 +258,22 @@
     <t>Tdu-Adu</t>
   </si>
   <si>
-    <t xml:space="preserve">Échéancier </t>
-  </si>
-  <si>
     <t>Création d'un serveure local</t>
   </si>
   <si>
     <t>Page Web Prototype</t>
+  </si>
+  <si>
+    <t>Échéancier de départ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document d'analyze </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation d'une page html dynamique </t>
+  </si>
+  <si>
+    <t>Apprentissage de sql</t>
   </si>
 </sst>
 </file>
@@ -1351,59 +1360,59 @@
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Début du projet" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Entrée" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Milliers" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Milliers [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Monétaire" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Monétaire [0]" xfId="16" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="20" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Nom" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Pourcentage" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Tâche" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Texte explicatif" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="12">
@@ -1959,11 +1968,11 @@
   <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -2370,15 +2379,15 @@
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="J6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="K6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="L6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2386,27 +2395,27 @@
       </c>
       <c r="M6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="N6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="O6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="P6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="Q6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="R6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="S6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2414,27 +2423,27 @@
       </c>
       <c r="T6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="U6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="V6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="W6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="X6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Y6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="Z6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2442,27 +2451,27 @@
       </c>
       <c r="AA6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AB6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AC6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AD6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AE6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AF6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AG6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2470,27 +2479,27 @@
       </c>
       <c r="AH6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AI6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AJ6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AK6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AL6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AM6" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AN6" s="10" t="str">
         <f t="shared" si="3"/>
@@ -2498,27 +2507,27 @@
       </c>
       <c r="AO6" s="10" t="str">
         <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"jjj"),1)</f>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AP6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AQ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AR6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AS6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AT6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="AU6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2526,27 +2535,27 @@
       </c>
       <c r="AV6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="AW6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="AX6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="AY6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="AZ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BA6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BB6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2554,27 +2563,27 @@
       </c>
       <c r="BC6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BD6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BE6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
       <c r="BF6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>l</v>
+        <v>j</v>
       </c>
       <c r="BG6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BH6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>m</v>
+        <v>j</v>
       </c>
       <c r="BI6" s="10" t="str">
         <f t="shared" si="4"/>
@@ -2582,15 +2591,15 @@
       </c>
       <c r="BJ6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>v</v>
+        <v>j</v>
       </c>
       <c r="BK6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="BL6" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>d</v>
+        <v>j</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2744,7 +2753,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="72">
         <v>44965</v>
@@ -2826,7 +2835,7 @@
         <v>49</v>
       </c>
       <c r="D10" s="17">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="E10" s="72">
         <v>44965</v>
@@ -2906,7 +2915,7 @@
         <v>49</v>
       </c>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E11" s="72">
         <v>44965</v>
@@ -2986,7 +2995,7 @@
         <v>58</v>
       </c>
       <c r="D12" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="72">
         <v>44965</v>
@@ -3060,13 +3069,13 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="53" t="s">
         <v>49</v>
       </c>
       <c r="D13" s="17">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E13" s="72">
         <v>44965</v>
@@ -3285,13 +3294,13 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="20">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="75">
         <v>44965</v>
@@ -3365,13 +3374,13 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="20">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="75">
         <v>44965</v>
@@ -3445,20 +3454,25 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="20">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="75">
+        <v>44966</v>
+      </c>
+      <c r="F18" s="75">
+        <f>E18+19</f>
+        <v>44985</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="14" t="e">
+      <c r="H18" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>20</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3520,20 +3534,25 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="75" t="s">
-        <v>29</v>
+        <v>63</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="75">
+        <v>44966</v>
+      </c>
+      <c r="F19" s="75">
+        <f>E19+30</f>
+        <v>44996</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14" t="e">
+      <c r="H19" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
@@ -3595,20 +3614,25 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="75" t="s">
-        <v>29</v>
+        <v>64</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="75">
+        <v>44966</v>
+      </c>
+      <c r="F20" s="75">
+        <f>E20+30</f>
+        <v>44996</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="14" t="e">
+      <c r="H20" s="14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>31</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -4947,11 +4971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="90.7109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>

--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C800F5-B9D8-43CB-987B-8C1BAA3FB1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6EF5F6-6064-40B1-9FDD-832DD88D49C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Diaggrame_De_Gantt_Workout.xlsx
+++ b/Diaggrame_De_Gantt_Workout.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8913C88E-201D-4ABD-9247-CD0D140F48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB0AB6-9893-4A05-9D63-2F3189F129FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t>Créez un planning de projet dans cette feuille de calcul.
 Entrez le titre de ce projet dans la cellule B1. 
@@ -138,12 +138,6 @@
     <t>Tâche 5</t>
   </si>
   <si>
-    <t>Titre Phase 3</t>
-  </si>
-  <si>
-    <t>Titre Phase 4</t>
-  </si>
-  <si>
     <t>Insérez les nouvelle lignes au-dessus de celle-ci.</t>
   </si>
   <si>
@@ -240,9 +234,6 @@
     <t>Diagramme de Gantt</t>
   </si>
   <si>
-    <t>Création d'un prototype</t>
-  </si>
-  <si>
     <t>Thomas Duplessis</t>
   </si>
   <si>
@@ -274,6 +265,15 @@
   </si>
   <si>
     <t>Apprentissage de sql</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Back-End </t>
+  </si>
+  <si>
+    <t>Front-End</t>
+  </si>
+  <si>
+    <t>Merge et finalisation du projet</t>
   </si>
 </sst>
 </file>
@@ -1340,6 +1340,12 @@
     <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1352,67 +1358,61 @@
     <xf numFmtId="168" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Date" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
     <cellStyle name="Début du projet" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Milliers" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Milliers [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Monétaire" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Monétaire [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Nom" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Pourcentage" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Tâche" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="17" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="25" builtinId="23" customBuiltin="1"/>
     <cellStyle name="zTexteMasqué" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="12">
@@ -1969,10 +1969,10 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
@@ -1999,7 +1999,7 @@
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
       <c r="I1" s="67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2007,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I2" s="68"/>
     </row>
@@ -2016,108 +2016,108 @@
         <v>2</v>
       </c>
       <c r="B3" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="92">
+        <v>51</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="94">
         <v>44965</v>
       </c>
-      <c r="F3" s="92"/>
+      <c r="F3" s="94"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="94"/>
+      <c r="C4" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="90"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="91">
         <f>I5</f>
         <v>44963</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="92"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="93"/>
+      <c r="P4" s="91">
         <f>P5</f>
         <v>44970</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="92"/>
+      <c r="R4" s="92"/>
+      <c r="S4" s="92"/>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="93"/>
+      <c r="W4" s="91">
         <f>W5</f>
         <v>44977</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="92"/>
+      <c r="Y4" s="92"/>
+      <c r="Z4" s="92"/>
+      <c r="AA4" s="92"/>
+      <c r="AB4" s="92"/>
+      <c r="AC4" s="93"/>
+      <c r="AD4" s="91">
         <f>AD5</f>
         <v>44984</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="92"/>
+      <c r="AF4" s="92"/>
+      <c r="AG4" s="92"/>
+      <c r="AH4" s="92"/>
+      <c r="AI4" s="92"/>
+      <c r="AJ4" s="93"/>
+      <c r="AK4" s="91">
         <f>AK5</f>
         <v>44991</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="92"/>
+      <c r="AM4" s="92"/>
+      <c r="AN4" s="92"/>
+      <c r="AO4" s="92"/>
+      <c r="AP4" s="92"/>
+      <c r="AQ4" s="93"/>
+      <c r="AR4" s="91">
         <f>AR5</f>
         <v>44998</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="92"/>
+      <c r="AT4" s="92"/>
+      <c r="AU4" s="92"/>
+      <c r="AV4" s="92"/>
+      <c r="AW4" s="92"/>
+      <c r="AX4" s="93"/>
+      <c r="AY4" s="91">
         <f>AY5</f>
         <v>45005</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="92"/>
+      <c r="BA4" s="92"/>
+      <c r="BB4" s="92"/>
+      <c r="BC4" s="92"/>
+      <c r="BD4" s="92"/>
+      <c r="BE4" s="93"/>
+      <c r="BF4" s="91">
         <f>BF5</f>
         <v>45012</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="92"/>
+      <c r="BH4" s="92"/>
+      <c r="BI4" s="92"/>
+      <c r="BJ4" s="92"/>
+      <c r="BK4" s="92"/>
+      <c r="BL4" s="93"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
@@ -2362,20 +2362,20 @@
         <v>15</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>30</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="10" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"jjj"),1)</f>
@@ -2674,7 +2674,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="16"/>
@@ -2747,10 +2747,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="17">
         <v>1</v>
@@ -2829,10 +2829,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2909,10 +2909,10 @@
     <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D11" s="17">
         <v>0.75</v>
@@ -2989,10 +2989,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="61" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3069,10 +3069,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="61" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="17">
         <v>1</v>
@@ -3151,10 +3151,10 @@
       <c r="C14" s="53"/>
       <c r="D14" s="17"/>
       <c r="E14" s="72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F14" s="72" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14" t="e">
@@ -3223,9 +3223,11 @@
         <v>10</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="54"/>
+        <v>62</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="73"/>
       <c r="F15" s="74"/>
@@ -3294,10 +3296,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46"/>
       <c r="B16" s="62" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="20">
         <v>0.25</v>
@@ -3374,10 +3376,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="62" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="20">
         <v>0.25</v>
@@ -3454,10 +3456,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="62" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D18" s="20">
         <v>0.9</v>
@@ -3534,10 +3536,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="62" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D19" s="20">
         <v>0.1</v>
@@ -3614,10 +3616,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D20" s="20">
         <v>0.1</v>
@@ -3696,9 +3698,11 @@
         <v>11</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="56"/>
+        <v>63</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="22"/>
       <c r="E21" s="76"/>
       <c r="F21" s="77"/>
@@ -3772,10 +3776,10 @@
       <c r="C22" s="57"/>
       <c r="D22" s="23"/>
       <c r="E22" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F22" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14" t="e">
@@ -3847,10 +3851,10 @@
       <c r="C23" s="57"/>
       <c r="D23" s="23"/>
       <c r="E23" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G23" s="14"/>
       <c r="H23" s="14" t="e">
@@ -3922,10 +3926,10 @@
       <c r="C24" s="57"/>
       <c r="D24" s="23"/>
       <c r="E24" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F24" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14" t="e">
@@ -3997,10 +4001,10 @@
       <c r="C25" s="57"/>
       <c r="D25" s="23"/>
       <c r="E25" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F25" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="e">
@@ -4139,15 +4143,15 @@
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="23"/>
       <c r="E27" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F27" s="78" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14" t="e">
@@ -4216,7 +4220,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C28" s="58"/>
       <c r="D28" s="25"/>
@@ -4292,10 +4296,10 @@
       <c r="C29" s="59"/>
       <c r="D29" s="26"/>
       <c r="E29" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F29" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="e">
@@ -4367,10 +4371,10 @@
       <c r="C30" s="59"/>
       <c r="D30" s="26"/>
       <c r="E30" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F30" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14" t="e">
@@ -4442,10 +4446,10 @@
       <c r="C31" s="59"/>
       <c r="D31" s="26"/>
       <c r="E31" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F31" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14" t="e">
@@ -4517,10 +4521,10 @@
       <c r="C32" s="59"/>
       <c r="D32" s="26"/>
       <c r="E32" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14" t="e">
@@ -4592,10 +4596,10 @@
       <c r="C33" s="59"/>
       <c r="D33" s="26"/>
       <c r="E33" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" s="81" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14" t="e">
@@ -4801,7 +4805,7 @@
         <v>13</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="29"/>
@@ -4881,17 +4885,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D36">
     <cfRule type="dataBar" priority="14">
@@ -4975,7 +4979,7 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="90.7109375" style="35" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
@@ -4984,79 +4988,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="40" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="35" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="35" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="38" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -5073,35 +5077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5389,27 +5364,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F80F839-78EF-4FF4-A673-3CC84279C232}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5428,4 +5412,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>